--- a/HTTP-5102/http-5102-kyle-cheung-timesheet-2.xlsx
+++ b/HTTP-5102/http-5102-kyle-cheung-timesheet-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ky\Documents\GitHub\School\HTTP-5102\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD5ED6E-0F0A-453A-9B39-C889EE38E624}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64A7A44-327A-46BE-8AB9-060C7180A38A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-4680" windowWidth="23256" windowHeight="12576" xr2:uid="{9501923F-8512-4212-9457-760889AAB6D7}"/>
+    <workbookView xWindow="27012" yWindow="-1944" windowWidth="17292" windowHeight="8844" activeTab="4" xr2:uid="{9501923F-8512-4212-9457-760889AAB6D7}"/>
   </bookViews>
   <sheets>
     <sheet name="HTTP-5101" sheetId="9" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Kyle Cheung N01446543</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>asynchronous notes</t>
+  </si>
+  <si>
+    <t>synchronous class</t>
   </si>
 </sst>
 </file>
@@ -242,6 +245,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -254,10 +261,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,7 +577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8103A04-D053-4470-9A93-0FFE1C2C3C0A}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -586,11 +589,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -609,7 +612,7 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -750,11 +753,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -773,7 +776,7 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -914,11 +917,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -937,7 +940,7 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1078,11 +1081,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1101,7 +1104,7 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1230,8 +1233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B471EFE2-130E-4B81-82B9-A34ED89D2F83}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1242,11 +1245,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1265,7 +1268,7 @@
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1281,7 +1284,7 @@
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="16">
         <v>44117</v>
       </c>
       <c r="C6" s="1">
@@ -1289,9 +1292,15 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="16">
+        <v>44118</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
@@ -1385,7 +1394,7 @@
       <c r="B25" s="12"/>
       <c r="C25" s="3">
         <f>SUM(C6:C24)</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/HTTP-5102/http-5102-kyle-cheung-timesheet-2.xlsx
+++ b/HTTP-5102/http-5102-kyle-cheung-timesheet-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ky\Documents\GitHub\School\HTTP-5102\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64A7A44-327A-46BE-8AB9-060C7180A38A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82BC687-9DD9-4128-B81A-D09990A5C27C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27012" yWindow="-1944" windowWidth="17292" windowHeight="8844" activeTab="4" xr2:uid="{9501923F-8512-4212-9457-760889AAB6D7}"/>
+    <workbookView xWindow="27132" yWindow="-3192" windowWidth="17292" windowHeight="8844" xr2:uid="{9501923F-8512-4212-9457-760889AAB6D7}"/>
   </bookViews>
   <sheets>
     <sheet name="HTTP-5101" sheetId="9" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
   <si>
     <t>Kyle Cheung N01446543</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>synchronous class</t>
+  </si>
+  <si>
+    <t>team meeting #5</t>
+  </si>
+  <si>
+    <t>asynchronous videos</t>
   </si>
 </sst>
 </file>
@@ -577,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8103A04-D053-4470-9A93-0FFE1C2C3C0A}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,14 +631,26 @@
       <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="16">
+        <v>44118</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="16">
+        <v>44119</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
@@ -726,7 +744,7 @@
       <c r="B25" s="12"/>
       <c r="C25" s="3">
         <f>SUM(C6:C24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -742,7 +760,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -789,14 +807,26 @@
       <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="16">
+        <v>44117</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="16">
+        <v>44118</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
@@ -890,7 +920,7 @@
       <c r="B25" s="12"/>
       <c r="C25" s="3">
         <f>SUM(C6:C24)</f>
-        <v>0</v>
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>
@@ -906,7 +936,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -953,9 +983,15 @@
       <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="16">
+        <v>44117</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
@@ -1054,7 +1090,7 @@
       <c r="B25" s="12"/>
       <c r="C25" s="3">
         <f>SUM(C6:C24)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
@@ -1070,7 +1106,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1117,14 +1153,26 @@
       <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="16">
+        <v>44118</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="16">
+        <v>44119</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
@@ -1218,7 +1266,7 @@
       <c r="B25" s="12"/>
       <c r="C25" s="3">
         <f>SUM(C6:C24)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1233,7 +1281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B471EFE2-130E-4B81-82B9-A34ED89D2F83}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>

--- a/HTTP-5102/http-5102-kyle-cheung-timesheet-2.xlsx
+++ b/HTTP-5102/http-5102-kyle-cheung-timesheet-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ky\Documents\GitHub\School\HTTP-5102\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82BC687-9DD9-4128-B81A-D09990A5C27C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CAA31C-DCDF-4F65-88F1-FDCE2902978D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27132" yWindow="-3192" windowWidth="17292" windowHeight="8844" xr2:uid="{9501923F-8512-4212-9457-760889AAB6D7}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
   <si>
     <t>Kyle Cheung N01446543</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>asynchronous videos</t>
+  </si>
+  <si>
+    <t>quiz 2</t>
   </si>
 </sst>
 </file>
@@ -584,7 +587,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,9 +656,15 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="16">
+        <v>44120</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
@@ -744,7 +753,7 @@
       <c r="B25" s="12"/>
       <c r="C25" s="3">
         <f>SUM(C6:C24)</f>
-        <v>2</v>
+        <v>2.25</v>
       </c>
     </row>
   </sheetData>

--- a/HTTP-5102/http-5102-kyle-cheung-timesheet-2.xlsx
+++ b/HTTP-5102/http-5102-kyle-cheung-timesheet-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ky\Documents\GitHub\School\HTTP-5102\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CAA31C-DCDF-4F65-88F1-FDCE2902978D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6047A4E-FF3A-4FA7-9379-FA483E57566B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27132" yWindow="-3192" windowWidth="17292" windowHeight="8844" xr2:uid="{9501923F-8512-4212-9457-760889AAB6D7}"/>
+    <workbookView xWindow="22932" yWindow="-4680" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{9501923F-8512-4212-9457-760889AAB6D7}"/>
   </bookViews>
   <sheets>
     <sheet name="HTTP-5101" sheetId="9" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
   <si>
     <t>Kyle Cheung N01446543</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>quiz 2</t>
+  </si>
+  <si>
+    <t>exercises</t>
+  </si>
+  <si>
+    <t>assignment 2</t>
   </si>
 </sst>
 </file>
@@ -586,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8103A04-D053-4470-9A93-0FFE1C2C3C0A}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,9 +673,15 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="16">
+        <v>44120</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
@@ -753,7 +765,7 @@
       <c r="B25" s="12"/>
       <c r="C25" s="3">
         <f>SUM(C6:C24)</f>
-        <v>2.25</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1114,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3BCC91B-8BDB-409A-BAA6-EE41F9307675}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1184,9 +1196,15 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="16">
+        <v>44121</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
@@ -1275,7 +1293,7 @@
       <c r="B25" s="12"/>
       <c r="C25" s="3">
         <f>SUM(C6:C24)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/HTTP-5102/http-5102-kyle-cheung-timesheet-2.xlsx
+++ b/HTTP-5102/http-5102-kyle-cheung-timesheet-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ky\Documents\GitHub\School\HTTP-5102\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25B36DC-6D37-4AD9-ADAC-9FC35616516D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BE1565-0B0E-4315-9128-10315EAE1CE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-4680" windowWidth="23256" windowHeight="12576" xr2:uid="{9501923F-8512-4212-9457-760889AAB6D7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Kyle Cheung N01446543</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>synchronous class week 8</t>
+  </si>
+  <si>
+    <t>Group meeting #6</t>
+  </si>
+  <si>
+    <t>write up week #6 agenda</t>
+  </si>
+  <si>
+    <t>budget exercise</t>
   </si>
 </sst>
 </file>
@@ -565,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F18B939-5BE8-4902-92F2-6CCFDDEDD9AE}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,19 +668,37 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="16">
+        <v>44125</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16">
+        <v>44125</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="16">
+        <v>44126</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
@@ -734,13 +761,18 @@
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="3">
-        <f>SUM(C6:C24)</f>
-        <v>4.25</v>
+      <c r="B26" s="12"/>
+      <c r="C26" s="3">
+        <f>SUM(C6:C25)</f>
+        <v>5.25</v>
       </c>
     </row>
   </sheetData>

--- a/HTTP-5102/http-5102-kyle-cheung-timesheet-2.xlsx
+++ b/HTTP-5102/http-5102-kyle-cheung-timesheet-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ky\Documents\GitHub\School\HTTP-5102\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BE1565-0B0E-4315-9128-10315EAE1CE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7E15A7-70AA-4CE0-BC91-F7835497AA6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-4680" windowWidth="23256" windowHeight="12576" xr2:uid="{9501923F-8512-4212-9457-760889AAB6D7}"/>
+    <workbookView xWindow="27132" yWindow="-3192" windowWidth="17292" windowHeight="8844" xr2:uid="{9501923F-8512-4212-9457-760889AAB6D7}"/>
   </bookViews>
   <sheets>
     <sheet name="HTTP-5102" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Kyle Cheung N01446543</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>budget exercise</t>
+  </si>
+  <si>
+    <t>synchronous class week 9</t>
   </si>
 </sst>
 </file>
@@ -577,7 +580,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,9 +704,15 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="16">
+        <v>44138</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
@@ -772,7 +781,7 @@
       <c r="B26" s="12"/>
       <c r="C26" s="3">
         <f>SUM(C6:C25)</f>
-        <v>5.25</v>
+        <v>6.25</v>
       </c>
     </row>
   </sheetData>

--- a/HTTP-5102/http-5102-kyle-cheung-timesheet-2.xlsx
+++ b/HTTP-5102/http-5102-kyle-cheung-timesheet-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ky\Documents\GitHub\School\HTTP-5102\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7E15A7-70AA-4CE0-BC91-F7835497AA6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C8946A-B35C-401C-8B40-1661E6239BD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27132" yWindow="-3192" windowWidth="17292" windowHeight="8844" xr2:uid="{9501923F-8512-4212-9457-760889AAB6D7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Kyle Cheung N01446543</t>
   </si>
@@ -63,10 +63,16 @@
     <t>write up week #6 agenda</t>
   </si>
   <si>
-    <t>budget exercise</t>
-  </si>
-  <si>
     <t>synchronous class week 9</t>
+  </si>
+  <si>
+    <t>build budget for proposal</t>
+  </si>
+  <si>
+    <t>budget exercise for class</t>
+  </si>
+  <si>
+    <t>discord configuration for meetings</t>
   </si>
 </sst>
 </file>
@@ -580,7 +586,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -694,7 +700,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12" s="16">
         <v>44126</v>
@@ -705,7 +711,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="16">
         <v>44138</v>
@@ -715,14 +721,26 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="16">
+        <v>44145</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="1"/>
+      <c r="A15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="16">
+        <v>44145</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
@@ -781,7 +799,7 @@
       <c r="B26" s="12"/>
       <c r="C26" s="3">
         <f>SUM(C6:C25)</f>
-        <v>6.25</v>
+        <v>7.75</v>
       </c>
     </row>
   </sheetData>

--- a/HTTP-5102/http-5102-kyle-cheung-timesheet-2.xlsx
+++ b/HTTP-5102/http-5102-kyle-cheung-timesheet-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ky\Documents\GitHub\School\HTTP-5102\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C8946A-B35C-401C-8B40-1661E6239BD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D93BF7-DC59-4EE4-A0BB-BA30CA8594EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27132" yWindow="-3192" windowWidth="17292" windowHeight="8844" xr2:uid="{9501923F-8512-4212-9457-760889AAB6D7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Kyle Cheung N01446543</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>discord configuration for meetings</t>
+  </si>
+  <si>
+    <t>Meeting #8</t>
+  </si>
+  <si>
+    <t>Meeting #7</t>
+  </si>
+  <si>
+    <t>write meeting agenda</t>
+  </si>
+  <si>
+    <t>review budget + timeline</t>
   </si>
 </sst>
 </file>
@@ -583,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F18B939-5BE8-4902-92F2-6CCFDDEDD9AE}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -722,45 +734,69 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B14" s="16">
-        <v>44145</v>
+        <v>44139</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B15" s="16">
-        <v>44145</v>
+        <v>44139</v>
       </c>
       <c r="C15" s="1">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="1"/>
+      <c r="A16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="16">
+        <v>44145</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="1"/>
+      <c r="A17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="16">
+        <v>44145</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="1"/>
+      <c r="A18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="16">
+        <v>44146</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="1"/>
+      <c r="A19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="16">
+        <v>44146</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
@@ -793,13 +829,23 @@
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="3">
-        <f>SUM(C6:C25)</f>
-        <v>7.75</v>
+      <c r="B28" s="12"/>
+      <c r="C28" s="3">
+        <f>SUM(C6:C27)</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/HTTP-5102/http-5102-kyle-cheung-timesheet-2.xlsx
+++ b/HTTP-5102/http-5102-kyle-cheung-timesheet-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ky\Documents\GitHub\School\HTTP-5102\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D93BF7-DC59-4EE4-A0BB-BA30CA8594EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7830CA-FC11-4104-94A7-8BBF35FD545F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27132" yWindow="-3192" windowWidth="17292" windowHeight="8844" xr2:uid="{9501923F-8512-4212-9457-760889AAB6D7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Kyle Cheung N01446543</t>
   </si>
@@ -85,6 +85,18 @@
   </si>
   <si>
     <t>review budget + timeline</t>
+  </si>
+  <si>
+    <t>synchronous class</t>
+  </si>
+  <si>
+    <t>write meeting Agenda #9</t>
+  </si>
+  <si>
+    <t>team meeting #9</t>
+  </si>
+  <si>
+    <t>initial compilation of final proposal</t>
   </si>
 </sst>
 </file>
@@ -597,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F18B939-5BE8-4902-92F2-6CCFDDEDD9AE}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -799,24 +811,48 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="1"/>
+      <c r="A20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="16">
+        <v>44152</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="1"/>
+      <c r="A21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="16">
+        <v>44153</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="1"/>
+      <c r="A22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="16">
+        <v>44153</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="1"/>
+      <c r="A23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="16">
+        <v>44153</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
@@ -845,7 +881,7 @@
       <c r="B28" s="12"/>
       <c r="C28" s="3">
         <f>SUM(C6:C27)</f>
-        <v>10</v>
+        <v>13.25</v>
       </c>
     </row>
   </sheetData>

--- a/HTTP-5102/http-5102-kyle-cheung-timesheet-2.xlsx
+++ b/HTTP-5102/http-5102-kyle-cheung-timesheet-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ky\Documents\GitHub\School\HTTP-5102\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7830CA-FC11-4104-94A7-8BBF35FD545F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8976662-04FE-49DD-8177-88813B2F0CA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27132" yWindow="-3192" windowWidth="17292" windowHeight="8844" xr2:uid="{9501923F-8512-4212-9457-760889AAB6D7}"/>
+    <workbookView xWindow="25548" yWindow="-3888" windowWidth="17292" windowHeight="8844" xr2:uid="{9501923F-8512-4212-9457-760889AAB6D7}"/>
   </bookViews>
   <sheets>
     <sheet name="HTTP-5102" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Kyle Cheung N01446543</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>initial compilation of final proposal</t>
+  </si>
+  <si>
+    <t>added bio and formatted group doc</t>
+  </si>
+  <si>
+    <t>write agenda for meeting #10</t>
+  </si>
+  <si>
+    <t>group meeting #10</t>
   </si>
 </sst>
 </file>
@@ -609,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F18B939-5BE8-4902-92F2-6CCFDDEDD9AE}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -855,19 +864,37 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="1"/>
+      <c r="A24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="16">
+        <v>44155</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="1"/>
+      <c r="A25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="16">
+        <v>44160</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="1"/>
+      <c r="A26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="16">
+        <v>44160</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
@@ -881,7 +908,7 @@
       <c r="B28" s="12"/>
       <c r="C28" s="3">
         <f>SUM(C6:C27)</f>
-        <v>13.25</v>
+        <v>14.75</v>
       </c>
     </row>
   </sheetData>

--- a/HTTP-5102/http-5102-kyle-cheung-timesheet-2.xlsx
+++ b/HTTP-5102/http-5102-kyle-cheung-timesheet-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ky\Documents\GitHub\School\HTTP-5102\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8976662-04FE-49DD-8177-88813B2F0CA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87DDEF1-2014-4620-893D-D5A679300577}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25548" yWindow="-3888" windowWidth="17292" windowHeight="8844" xr2:uid="{9501923F-8512-4212-9457-760889AAB6D7}"/>
+    <workbookView xWindow="22932" yWindow="-4680" windowWidth="23256" windowHeight="12576" xr2:uid="{9501923F-8512-4212-9457-760889AAB6D7}"/>
   </bookViews>
   <sheets>
     <sheet name="HTTP-5102" sheetId="8" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Kyle Cheung N01446543</t>
   </si>
@@ -106,6 +106,30 @@
   </si>
   <si>
     <t>group meeting #10</t>
+  </si>
+  <si>
+    <t>edit draft proposal</t>
+  </si>
+  <si>
+    <t>group meeting #11</t>
+  </si>
+  <si>
+    <t>write group agenda</t>
+  </si>
+  <si>
+    <t>Proposal sprint</t>
+  </si>
+  <si>
+    <t>presentation sprint</t>
+  </si>
+  <si>
+    <t>edit presentation</t>
+  </si>
+  <si>
+    <t>group meeting # 12</t>
+  </si>
+  <si>
+    <t>write agenda for meeting #12</t>
   </si>
 </sst>
 </file>
@@ -616,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F18B939-5BE8-4902-92F2-6CCFDDEDD9AE}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -876,39 +900,133 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B25" s="16">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="C25" s="1">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="16">
         <v>44160</v>
       </c>
       <c r="C26" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="16">
+        <v>44160</v>
+      </c>
+      <c r="C27" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="1"/>
-    </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="16">
+        <v>44166</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="16">
+        <v>44167</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="16">
+        <v>44167</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="16">
+        <v>44167</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="16">
+        <v>44173</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="16">
+        <v>44174</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="16">
+        <v>44174</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="16">
+        <v>44174</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="3">
-        <f>SUM(C6:C27)</f>
-        <v>14.75</v>
+      <c r="B36" s="12"/>
+      <c r="C36" s="3">
+        <f>SUM(C6:C35)</f>
+        <v>22.25</v>
       </c>
     </row>
   </sheetData>

--- a/HTTP-5102/http-5102-kyle-cheung-timesheet-2.xlsx
+++ b/HTTP-5102/http-5102-kyle-cheung-timesheet-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ky\Documents\GitHub\School\HTTP-5102\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87DDEF1-2014-4620-893D-D5A679300577}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC8A509-2A3D-44BA-8AAE-7BE395BD97C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-4680" windowWidth="23256" windowHeight="12576" xr2:uid="{9501923F-8512-4212-9457-760889AAB6D7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Kyle Cheung N01446543</t>
   </si>
@@ -42,94 +42,16 @@
     <t>Total</t>
   </si>
   <si>
-    <t>HTTP-5102 Project Management</t>
-  </si>
-  <si>
-    <t>team meeting #5</t>
-  </si>
-  <si>
-    <t>user stories exercise</t>
-  </si>
-  <si>
-    <t>synchronous class week 7</t>
-  </si>
-  <si>
-    <t>synchronous class week 8</t>
-  </si>
-  <si>
-    <t>Group meeting #6</t>
-  </si>
-  <si>
-    <t>write up week #6 agenda</t>
-  </si>
-  <si>
-    <t>synchronous class week 9</t>
-  </si>
-  <si>
-    <t>build budget for proposal</t>
-  </si>
-  <si>
-    <t>budget exercise for class</t>
-  </si>
-  <si>
-    <t>discord configuration for meetings</t>
-  </si>
-  <si>
-    <t>Meeting #8</t>
-  </si>
-  <si>
-    <t>Meeting #7</t>
-  </si>
-  <si>
-    <t>write meeting agenda</t>
-  </si>
-  <si>
-    <t>review budget + timeline</t>
-  </si>
-  <si>
-    <t>synchronous class</t>
-  </si>
-  <si>
-    <t>write meeting Agenda #9</t>
-  </si>
-  <si>
-    <t>team meeting #9</t>
-  </si>
-  <si>
-    <t>initial compilation of final proposal</t>
-  </si>
-  <si>
-    <t>added bio and formatted group doc</t>
-  </si>
-  <si>
-    <t>write agenda for meeting #10</t>
-  </si>
-  <si>
-    <t>group meeting #10</t>
-  </si>
-  <si>
-    <t>edit draft proposal</t>
-  </si>
-  <si>
-    <t>group meeting #11</t>
-  </si>
-  <si>
-    <t>write group agenda</t>
-  </si>
-  <si>
-    <t>Proposal sprint</t>
-  </si>
-  <si>
-    <t>presentation sprint</t>
-  </si>
-  <si>
-    <t>edit presentation</t>
-  </si>
-  <si>
-    <t>group meeting # 12</t>
-  </si>
-  <si>
-    <t>write agenda for meeting #12</t>
+    <t>HTTP-5206 Information Architecture</t>
+  </si>
+  <si>
+    <t>Synchronous Class</t>
+  </si>
+  <si>
+    <t>Asynchronous Reading</t>
+  </si>
+  <si>
+    <t>Navigation Exercise</t>
   </si>
 </sst>
 </file>
@@ -640,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F18B939-5BE8-4902-92F2-6CCFDDEDD9AE}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,21 +613,21 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="16">
-        <v>44117</v>
+        <v>44215</v>
       </c>
       <c r="C6" s="1">
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="16">
-        <v>44118</v>
+        <v>44221</v>
       </c>
       <c r="C7" s="1">
         <v>0.5</v>
@@ -713,320 +635,141 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="16">
-        <v>44119</v>
+        <v>44222</v>
       </c>
       <c r="C8" s="1">
-        <v>0.5</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="16">
-        <v>44124</v>
+        <v>44228</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B10" s="16">
-        <v>44125</v>
+        <v>44229</v>
       </c>
       <c r="C10" s="1">
-        <v>0.25</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="16">
-        <v>44125</v>
+        <v>44229</v>
       </c>
       <c r="C11" s="1">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="16">
-        <v>44126</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="A12" s="7"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="16">
-        <v>44138</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
+      <c r="A13" s="7"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="16">
-        <v>44139</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.25</v>
-      </c>
+      <c r="A14" s="7"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="16">
-        <v>44139</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="A15" s="7"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="16">
-        <v>44145</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
+      <c r="A16" s="7"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="16">
-        <v>44145</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="A17" s="7"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="16">
-        <v>44146</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="A18" s="7"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="16">
-        <v>44146</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
+      <c r="A19" s="7"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="16">
-        <v>44152</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1.5</v>
-      </c>
+      <c r="A20" s="7"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="16">
-        <v>44153</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.25</v>
-      </c>
+      <c r="A21" s="7"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="16">
-        <v>44153</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="A22" s="7"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="16">
-        <v>44153</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
+      <c r="A23" s="7"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="16">
-        <v>44155</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.75</v>
-      </c>
+      <c r="A24" s="7"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="16">
-        <v>44159</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1.5</v>
-      </c>
+      <c r="A25" s="7"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="16">
-        <v>44160</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.25</v>
-      </c>
+      <c r="A26" s="7"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="16">
-        <v>44160</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="A27" s="7"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="16">
-        <v>44166</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1.5</v>
-      </c>
+      <c r="A28" s="7"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="16">
-        <v>44167</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="16">
-        <v>44167</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="16">
-        <v>44167</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="16">
-        <v>44173</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="16">
-        <v>44174</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="16">
-        <v>44174</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="16">
-        <v>44174</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+      <c r="A29" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="3">
-        <f>SUM(C6:C35)</f>
-        <v>22.25</v>
+      <c r="B29" s="12"/>
+      <c r="C29" s="3">
+        <f>SUM(C6:C28)</f>
+        <v>9.5</v>
       </c>
     </row>
   </sheetData>
